--- a/data/trans_dic/P19F$mañana-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19F$mañana-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,63; 52,56</t>
+          <t>38,43; 52,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,23; 58,8</t>
+          <t>41,84; 58,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,59; 53,01</t>
+          <t>40,97; 53,47</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,34; 47,17</t>
+          <t>32,68; 46,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,51; 53,15</t>
+          <t>38,04; 53,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,51; 47,78</t>
+          <t>36,58; 47,7</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,96; 46,61</t>
+          <t>35,21; 46,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,41; 64,93</t>
+          <t>40,45; 64,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,91; 48,74</t>
+          <t>38,51; 49,37</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,09; 43,13</t>
+          <t>35,8; 44,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,63; 52,59</t>
+          <t>43,49; 52,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,81; 46,18</t>
+          <t>39,84; 46,19</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,55; 46,01</t>
+          <t>35,31; 45,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,98; 45,94</t>
+          <t>36,27; 46,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,19; 44,31</t>
+          <t>37,34; 44,54</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,44; 51,39</t>
+          <t>35,46; 52,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,0; 46,53</t>
+          <t>37,38; 46,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,76; 46,44</t>
+          <t>38,73; 46,63</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,41; 43,4</t>
+          <t>38,66; 43,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>42,38; 47,31</t>
+          <t>42,16; 47,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>41,06; 44,57</t>
+          <t>41,29; 44,61</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se cepilla los dientes por la mañana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>90150</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>64187</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>154337</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>76768; 105808</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53899; 74956</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>134609; 175702</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>70959</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>81955</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>152913</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>58545; 83830</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>68267; 96190</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>131178; 171048</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>114944</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>39845</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>154789</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>99323; 132043</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30158; 48202</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>137348; 176071</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>245666</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>202566</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>448232</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>222923; 274228</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>183816; 223176</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>416524; 482842</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>137324</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>166455</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>303780</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>118991; 154758</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>146846; 188450</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>277000; 330445</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>67960</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>223252</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>291211</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>55650; 82205</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>197271; 245849</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>265158; 319265</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>727003</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>778260</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1505262</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>687172; 768663</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>732841; 817245</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1451649; 1568367</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19F$mañana-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19F$mañana-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
